--- a/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment2.xlsx
@@ -636,7 +636,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +666,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="17">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1675,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
